--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_561.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_561.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33125-d82233-Reviews-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Motel-6-Stanton.h1029891.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_561.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_561.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,577 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r569904255-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>33125</t>
+  </si>
+  <si>
+    <t>82233</t>
+  </si>
+  <si>
+    <t>569904255</t>
+  </si>
+  <si>
+    <t>03/31/2018</t>
+  </si>
+  <si>
+    <t>Good service  to the personal the,front desk the person name is javon  good atencion  and service is close to the funs parks and recreation  the room is very clean and comfortable  good estancia ............</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r503868426-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>503868426</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Disgusting and Dangerous !</t>
+  </si>
+  <si>
+    <t>I never write reviews but had to on this one.For your own physical and health safety stay away !I'm pretty easy going guy but my room was the most filthy rat hole I've ever stayed in.Even though room was cleaned before entry, it was gross.Both beds had stains all over them(you can imagine from what) and cigarette burn holes(non smoking room). I didn't even want to lay on top of bed let alone get in covers.Sink had human hair in it and bedroom counter and chair human or food particles.Shower gang graffiti. Police units outsideSketchy people hanging out all over facilityI could go on and on but you get the pictureIts like a slum hangout where police are regularly called for disturbances.The only bright spot was checking in staff was excellentMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I never write reviews but had to on this one.For your own physical and health safety stay away !I'm pretty easy going guy but my room was the most filthy rat hole I've ever stayed in.Even though room was cleaned before entry, it was gross.Both beds had stains all over them(you can imagine from what) and cigarette burn holes(non smoking room). I didn't even want to lay on top of bed let alone get in covers.Sink had human hair in it and bedroom counter and chair human or food particles.Shower gang graffiti. Police units outsideSketchy people hanging out all over facilityI could go on and on but you get the pictureIts like a slum hangout where police are regularly called for disturbances.The only bright spot was checking in staff was excellentMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r428826760-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>428826760</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Don't stay here!</t>
+  </si>
+  <si>
+    <t>This rathole is a bait and switch con game artist. I had a printed reservation which they refused to honor and they charged me 15$ more to stay there ....ignoring tHe reservation. The entire front desk staff is horrible....I watched as they upset at least 5 customers. Do not stay here....they are liars!</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r417472149-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>417472149</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>4 days in motel 6</t>
+  </si>
+  <si>
+    <t>they clean our room everyday and  they have free coffee from 7am until 10am. Bedsheets are new and beds are comfy. try it here and youll love it.there are few fastfood across the street.      staff were great.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r417376966-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>417376966</t>
+  </si>
+  <si>
+    <t>The best customer service ever👏🏼</t>
+  </si>
+  <si>
+    <t>Check in was fast and the efficient associates made sure the customer that we're in line were attended to and thank them for their patients. Guest service where professional and maintain the front desk That a busy time great job front desk!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r415497593-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>415497593</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>It did the job</t>
+  </si>
+  <si>
+    <t>I was out in the LA area for one night and chose this Motel 6 based on location and price. Affordable and adequate for what I needed, which was one night's stay, get in and get out. Wasn't expecting any bells or whistles, just a clean, non-smoking room with decent accommodations...and that's what I received. The front desk staff was attentive and friendly, and the surrounding area wasn't the most luxurious, but hey, I was going to be sleeping, not exploring the surrounding hood.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r358596097-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>358596097</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>Orange is the new black?!?</t>
+  </si>
+  <si>
+    <t>Let me first say....I really really like Motel 6!  Motel 6 is consistently consistent!  This Motel 6, like every Motel 6 I've stayed in was clean and fresh!  I really like the orange wall and orange accents and cool "pod" type shower!  I like the fact that you can tell by looking at the floor that it is clean.  This Motel 6 was a little different than the others because they have an intercom system that they use frequently to broadcast throughout the property warning loiterers to leave and reminding them that they are under surveillance, so they needed to gather their belongings and leave or the police will be called...I also observed the police driving through the property 3 times...this didn't bother me because I actually felt safer with the police and the cameras...however, with the police presence, the surveillance cameras and the orange walls, I did feel a little like an inmate!  LOL!  I am from Northern California, but spend a great deal of time in Orange County, I am a single mom traveling with my 16 year old daughter and we both felt safe !  On a side note, all the staff was super nice and helpful and the property was spotless with maintenance people constantly cleaning up, sweeping etc etc etc....I always know what to expect with Motel 6 and I like it that way!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Let me first say....I really really like Motel 6!  Motel 6 is consistently consistent!  This Motel 6, like every Motel 6 I've stayed in was clean and fresh!  I really like the orange wall and orange accents and cool "pod" type shower!  I like the fact that you can tell by looking at the floor that it is clean.  This Motel 6 was a little different than the others because they have an intercom system that they use frequently to broadcast throughout the property warning loiterers to leave and reminding them that they are under surveillance, so they needed to gather their belongings and leave or the police will be called...I also observed the police driving through the property 3 times...this didn't bother me because I actually felt safer with the police and the cameras...however, with the police presence, the surveillance cameras and the orange walls, I did feel a little like an inmate!  LOL!  I am from Northern California, but spend a great deal of time in Orange County, I am a single mom traveling with my 16 year old daughter and we both felt safe !  On a side note, all the staff was super nice and helpful and the property was spotless with maintenance people constantly cleaning up, sweeping etc etc etc....I always know what to expect with Motel 6 and I like it that way!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r357965993-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>357965993</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>A little sketchy</t>
+  </si>
+  <si>
+    <t>There is no problem with the staff, everyone I had talked to or ask a question were  courteous and nice. The problem is the room and neighborhood.  I had a smoking room but don't expect to have  numerous burns in the bedspread   The  furniture also needs to be replaced it's in terrible condition and people have drawn all over and side is peeling. I have to say I slept with one eye open. I don't care how a person looks, hell my hair is past my backside but I didn't feel the safest and wished I had protection. If you have a family stay away, if you are just 2 adults. You may want to think twice. The wifi was free because I am a member of AARP if not a member $2.99 to $4.99 for wifiMoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Stanton, responded to this reviewResponded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2016</t>
+  </si>
+  <si>
+    <t>There is no problem with the staff, everyone I had talked to or ask a question were  courteous and nice. The problem is the room and neighborhood.  I had a smoking room but don't expect to have  numerous burns in the bedspread   The  furniture also needs to be replaced it's in terrible condition and people have drawn all over and side is peeling. I have to say I slept with one eye open. I don't care how a person looks, hell my hair is past my backside but I didn't feel the safest and wished I had protection. If you have a family stay away, if you are just 2 adults. You may want to think twice. The wifi was free because I am a member of AARP if not a member $2.99 to $4.99 for wifiMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r357346347-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>357346347</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>No Pride In the Place</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 3 days in middle March and were very disappointed. Usually we are very easy going when it comes to hotels because all we are there to do is sleep but this hotel was horrible. Below are the cons that made us choose to never return. . .
+1. When we arrived the two front desk ladies were very young and seemed as if they had no idea what was going on. They were rude and were not personable at all. 
+2.  We stayed in a smoke free room however the top blanket was burned through with multiple cigarette burns, had multiple stains and snags galore. Needless to say we did not use it. 
+3. Both days that room service came they only left one washcloth for two people, which makes no sense to us. 
+4. They do not give any shampoos, conditioners, or lotions only tiny bar soaps. 
+5. No coffee makers, refrigerators, microwaves, blow dryers, dressers, or alarm clocks in the rooms. 
+6. The ice bucket they gave us was caked with some greasy substance and remained that way the whole trip obviously showing there housekeeping staff isn't very attentive to detail.
+7.  The location makes it extremely loud. Even if you are in the back buildings. 
+We originally were scheduled to stay 3 nights but decided we could take it and left a day early. Please for your own sanity and...My husband and I stayed here for 3 days in middle March and were very disappointed. Usually we are very easy going when it comes to hotels because all we are there to do is sleep but this hotel was horrible. Below are the cons that made us choose to never return. . .1. When we arrived the two front desk ladies were very young and seemed as if they had no idea what was going on. They were rude and were not personable at all. 2.  We stayed in a smoke free room however the top blanket was burned through with multiple cigarette burns, had multiple stains and snags galore. Needless to say we did not use it. 3. Both days that room service came they only left one washcloth for two people, which makes no sense to us. 4. They do not give any shampoos, conditioners, or lotions only tiny bar soaps. 5. No coffee makers, refrigerators, microwaves, blow dryers, dressers, or alarm clocks in the rooms. 6. The ice bucket they gave us was caked with some greasy substance and remained that way the whole trip obviously showing there housekeeping staff isn't very attentive to detail.7.  The location makes it extremely loud. Even if you are in the back buildings. We originally were scheduled to stay 3 nights but decided we could take it and left a day early. Please for your own sanity and health spend 10 dollars more a night and choose another hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Stanton, responded to this reviewResponded April 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 3 days in middle March and were very disappointed. Usually we are very easy going when it comes to hotels because all we are there to do is sleep but this hotel was horrible. Below are the cons that made us choose to never return. . .
+1. When we arrived the two front desk ladies were very young and seemed as if they had no idea what was going on. They were rude and were not personable at all. 
+2.  We stayed in a smoke free room however the top blanket was burned through with multiple cigarette burns, had multiple stains and snags galore. Needless to say we did not use it. 
+3. Both days that room service came they only left one washcloth for two people, which makes no sense to us. 
+4. They do not give any shampoos, conditioners, or lotions only tiny bar soaps. 
+5. No coffee makers, refrigerators, microwaves, blow dryers, dressers, or alarm clocks in the rooms. 
+6. The ice bucket they gave us was caked with some greasy substance and remained that way the whole trip obviously showing there housekeeping staff isn't very attentive to detail.
+7.  The location makes it extremely loud. Even if you are in the back buildings. 
+We originally were scheduled to stay 3 nights but decided we could take it and left a day early. Please for your own sanity and...My husband and I stayed here for 3 days in middle March and were very disappointed. Usually we are very easy going when it comes to hotels because all we are there to do is sleep but this hotel was horrible. Below are the cons that made us choose to never return. . .1. When we arrived the two front desk ladies were very young and seemed as if they had no idea what was going on. They were rude and were not personable at all. 2.  We stayed in a smoke free room however the top blanket was burned through with multiple cigarette burns, had multiple stains and snags galore. Needless to say we did not use it. 3. Both days that room service came they only left one washcloth for two people, which makes no sense to us. 4. They do not give any shampoos, conditioners, or lotions only tiny bar soaps. 5. No coffee makers, refrigerators, microwaves, blow dryers, dressers, or alarm clocks in the rooms. 6. The ice bucket they gave us was caked with some greasy substance and remained that way the whole trip obviously showing there housekeeping staff isn't very attentive to detail.7.  The location makes it extremely loud. Even if you are in the back buildings. We originally were scheduled to stay 3 nights but decided we could take it and left a day early. Please for your own sanity and health spend 10 dollars more a night and choose another hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r310606527-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>310606527</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Looks like picture online</t>
+  </si>
+  <si>
+    <t>They updated rooms looked like pictures had a good stay the only thing was the pillows were not comfortable had to go buy some for our stay pool was clean rooms were cleaned everyday they never put enough towels in room for 3 people so had to ask but they always gave us someWe never really heard noise that other people complained about in their reviews front desk people were friendly and so were the maids</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r299516952-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>299516952</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Just plain awful.</t>
+  </si>
+  <si>
+    <t>We had a 4 night stay here and will never stay here again. Even thought the room was newly remodeled it was gross. They didn't even get new bedding to go with all they put into the new décor. Nice new laminent flooring was dirty. Hair everywhere, and it wasn't ours, it was there when we checked in. Even though we had a no smoking room the bedding on both beds had several cigarette burns. Our toilet would not flush, it just swirled around. The cleaning staff came everyday around 6-7pm, kind of inconvenient. The towels besides being tiny and scratchy they were stained and had hair on them, every towel we had had hair on it.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Stanton, responded to this reviewResponded August 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 27, 2015</t>
+  </si>
+  <si>
+    <t>We had a 4 night stay here and will never stay here again. Even thought the room was newly remodeled it was gross. They didn't even get new bedding to go with all they put into the new décor. Nice new laminent flooring was dirty. Hair everywhere, and it wasn't ours, it was there when we checked in. Even though we had a no smoking room the bedding on both beds had several cigarette burns. Our toilet would not flush, it just swirled around. The cleaning staff came everyday around 6-7pm, kind of inconvenient. The towels besides being tiny and scratchy they were stained and had hair on them, every towel we had had hair on it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r286187447-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>286187447</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Sketchy area, dingy room</t>
+  </si>
+  <si>
+    <t>We checked in to this hotel for 6 nights, but ended up shortening our stay to 1 night because of how put off we were by the room. The check-in process was fine, but as soon as we got to the room, we knew we couldn't stay there. It was horribly lit, it smelled like someone had just smoked in it even though it was designated non-smoking, there were burn marks on the bedcovers, and it was incredibly muggy and humid even though the air conditioner was running at full blast. There were homeless people and drug addicts all over outside the building, and someone started yelling outside our door at 6:00 AM. This, and the uncomfortable bed and noisy AC resulted in a terrible night's sleep. I usually arrive at budget motels with very low expectations, and the only thing that barely met those expectations was the new-ish bathroom. The layout of the shower, however, is incredibly awkward and the shower itself is tiny. Not ideal for my 6'4 husband. Due to these issues, we checked out early and moved to a new hotel for the remainder of our vacation.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Stanton, responded to this reviewResponded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2015</t>
+  </si>
+  <si>
+    <t>We checked in to this hotel for 6 nights, but ended up shortening our stay to 1 night because of how put off we were by the room. The check-in process was fine, but as soon as we got to the room, we knew we couldn't stay there. It was horribly lit, it smelled like someone had just smoked in it even though it was designated non-smoking, there were burn marks on the bedcovers, and it was incredibly muggy and humid even though the air conditioner was running at full blast. There were homeless people and drug addicts all over outside the building, and someone started yelling outside our door at 6:00 AM. This, and the uncomfortable bed and noisy AC resulted in a terrible night's sleep. I usually arrive at budget motels with very low expectations, and the only thing that barely met those expectations was the new-ish bathroom. The layout of the shower, however, is incredibly awkward and the shower itself is tiny. Not ideal for my 6'4 husband. Due to these issues, we checked out early and moved to a new hotel for the remainder of our vacation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r264999378-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>264999378</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Requested a non smoking room the room smelled like someone just smoked in the room. When I called the front desk the receptionist stated your entire area us no smoking but I ts just bc people smoke outside MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Stanton, responded to this reviewResponded April 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2015</t>
+  </si>
+  <si>
+    <t>Requested a non smoking room the room smelled like someone just smoked in the room. When I called the front desk the receptionist stated your entire area us no smoking but I ts just bc people smoke outside More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r251682942-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>251682942</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>Great place for you and your family</t>
+  </si>
+  <si>
+    <t>Very friendly and quite. I think it's the best motel in Orange County. Great prices, friendly staff, clean rooms, and pet friendly. They even call your room after you check in to make sure everything is to your liking. And the lowest price out of the motel 6 chain and on top of that they have even lower weekly rates.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r251019704-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>251019704</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Business trip</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights to attend a convention in Anaheim so for our budget the rates were good, the service was good, no carpet on the floor and there appears to have been some upgrades. BUT the musty smell in the room hit us as soon as we opened the door and the beds did not appear clean. The bedspreads were stained and when we pulled them back the blankets had cigarette holes and stains as well. We won't be staying there again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Stanton, responded to this reviewResponded February 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2015</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights to attend a convention in Anaheim so for our budget the rates were good, the service was good, no carpet on the floor and there appears to have been some upgrades. BUT the musty smell in the room hit us as soon as we opened the door and the beds did not appear clean. The bedspreads were stained and when we pulled them back the blankets had cigarette holes and stains as well. We won't be staying there again.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r216796826-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>216796826</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Decent motel</t>
+  </si>
+  <si>
+    <t>We stayed in this location for 2 nights and didn't have any problems. The rooms were clean, it was quite quiet. It's probably the cheapest option for staying that close to Disneyland, but it's obviously Motel6 so don't expect anything special.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r215729986-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>215729986</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>Clean basic room, price is OK. Just make sure you don't get frontside room to the mainstreet. Much noise..................................................................................................................</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r206055897-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>206055897</t>
+  </si>
+  <si>
+    <t>05/18/2014</t>
+  </si>
+  <si>
+    <t>Dirty. Hairy. Gross. Sleep in your car.</t>
+  </si>
+  <si>
+    <t>I am writing this review as I sit in the room after having just taken a shower. I do not feel clean. Upon checking in we thought the place would be fine. The staff were super friendly and they were happy to give us a "no smoking" room adjoining the other family we were traveling with. But walking into the room was a completely different story. We requested two doubles but upon opening the door u feel like u are in Toon Town and looking in on a miniature house. The beds are tiny. They are probably 6 inches wider than a twin bed, but I could be being generous. The bed spreads were obviously stained and u could tell that they hadn't been freshly laundered at all because the stains looked fresh. One of the pillow cases had something I feared to be living growing on it and when I pulled back the blankets to check out the sheets I counted out five hairs before I stopped counting. It was obvious that the cleaning staff did not change the sheets, but just remade the bed instead. I called the front desk and they sent someone right up to change the bedding and were super nice about it, but I don't think it's a request that I should of had to make in the first place. When the lady took the sheets off there were urine stains on one bed...I am writing this review as I sit in the room after having just taken a shower. I do not feel clean. Upon checking in we thought the place would be fine. The staff were super friendly and they were happy to give us a "no smoking" room adjoining the other family we were traveling with. But walking into the room was a completely different story. We requested two doubles but upon opening the door u feel like u are in Toon Town and looking in on a miniature house. The beds are tiny. They are probably 6 inches wider than a twin bed, but I could be being generous. The bed spreads were obviously stained and u could tell that they hadn't been freshly laundered at all because the stains looked fresh. One of the pillow cases had something I feared to be living growing on it and when I pulled back the blankets to check out the sheets I counted out five hairs before I stopped counting. It was obvious that the cleaning staff did not change the sheets, but just remade the bed instead. I called the front desk and they sent someone right up to change the bedding and were super nice about it, but I don't think it's a request that I should of had to make in the first place. When the lady took the sheets off there were urine stains on one bed and some mysterious blue stain where a urine stain should have been and one of the decased pillows had a blood stain on it. The new sheets were clean but the bedspread was still stained but at least u could tell it had been washed. The shower was super icky. This place has new paint but it's still dirty and gross and our room smelled like cigarette smoke super bad even though it was supposed to be smoke free. Do not stay here. It's not worth it. The beds are laughably small and horribly uncomfortable and the ice maker makes the sounds of fighting dragons. All night. MoreShow less</t>
+  </si>
+  <si>
+    <t>I am writing this review as I sit in the room after having just taken a shower. I do not feel clean. Upon checking in we thought the place would be fine. The staff were super friendly and they were happy to give us a "no smoking" room adjoining the other family we were traveling with. But walking into the room was a completely different story. We requested two doubles but upon opening the door u feel like u are in Toon Town and looking in on a miniature house. The beds are tiny. They are probably 6 inches wider than a twin bed, but I could be being generous. The bed spreads were obviously stained and u could tell that they hadn't been freshly laundered at all because the stains looked fresh. One of the pillow cases had something I feared to be living growing on it and when I pulled back the blankets to check out the sheets I counted out five hairs before I stopped counting. It was obvious that the cleaning staff did not change the sheets, but just remade the bed instead. I called the front desk and they sent someone right up to change the bedding and were super nice about it, but I don't think it's a request that I should of had to make in the first place. When the lady took the sheets off there were urine stains on one bed...I am writing this review as I sit in the room after having just taken a shower. I do not feel clean. Upon checking in we thought the place would be fine. The staff were super friendly and they were happy to give us a "no smoking" room adjoining the other family we were traveling with. But walking into the room was a completely different story. We requested two doubles but upon opening the door u feel like u are in Toon Town and looking in on a miniature house. The beds are tiny. They are probably 6 inches wider than a twin bed, but I could be being generous. The bed spreads were obviously stained and u could tell that they hadn't been freshly laundered at all because the stains looked fresh. One of the pillow cases had something I feared to be living growing on it and when I pulled back the blankets to check out the sheets I counted out five hairs before I stopped counting. It was obvious that the cleaning staff did not change the sheets, but just remade the bed instead. I called the front desk and they sent someone right up to change the bedding and were super nice about it, but I don't think it's a request that I should of had to make in the first place. When the lady took the sheets off there were urine stains on one bed and some mysterious blue stain where a urine stain should have been and one of the decased pillows had a blood stain on it. The new sheets were clean but the bedspread was still stained but at least u could tell it had been washed. The shower was super icky. This place has new paint but it's still dirty and gross and our room smelled like cigarette smoke super bad even though it was supposed to be smoke free. Do not stay here. It's not worth it. The beds are laughably small and horribly uncomfortable and the ice maker makes the sounds of fighting dragons. All night. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r179996713-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>179996713</t>
+  </si>
+  <si>
+    <t>10/06/2013</t>
+  </si>
+  <si>
+    <t>A great and cheap place to stay.</t>
+  </si>
+  <si>
+    <t>I stayed here for 3 nights and found it very clean and comfortable.  The staff were extremely friendly and helpful.  The pool area was clean and tidy as was the rest of the place.  There was a Jack in the box next door and the food there was freshly cooked and good value.  There are also a few shops within walking distance where you could buy food and drinks and in the motel lobby there was a microwave and ice machine which were free to use.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r179375516-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>179375516</t>
+  </si>
+  <si>
+    <t>10/01/2013</t>
+  </si>
+  <si>
+    <t>review of “Manager "Tony" on an ego-trip”</t>
+  </si>
+  <si>
+    <t>I too want to thank the visitor of the above review and others who complained about the Motel 6 in Stanton, Ca. I live less than 1.5 miles from said location. I know this area well. And sorry to say this is a poor area loaded with hookers and druggies. Stanton is known for this low income type. I stayed at this motels years ago when it wasn't quite so bad. Fast forward to about 5 months ago and, whoa! Boy what a change! Yes it looks ok on the outside, sort of, but I would not stay here, if only for safety reasons alone! And yes you can get a nicer place for the money they charge you! Better yet, don't even stay in California, DIZZYland is not worth the price of admission!.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Stanton, responded to this reviewResponded November 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2013</t>
+  </si>
+  <si>
+    <t>I too want to thank the visitor of the above review and others who complained about the Motel 6 in Stanton, Ca. I live less than 1.5 miles from said location. I know this area well. And sorry to say this is a poor area loaded with hookers and druggies. Stanton is known for this low income type. I stayed at this motels years ago when it wasn't quite so bad. Fast forward to about 5 months ago and, whoa! Boy what a change! Yes it looks ok on the outside, sort of, but I would not stay here, if only for safety reasons alone! And yes you can get a nicer place for the money they charge you! Better yet, don't even stay in California, DIZZYland is not worth the price of admission!.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r177302145-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>177302145</t>
+  </si>
+  <si>
+    <t>09/15/2013</t>
+  </si>
+  <si>
+    <t>Manager "Tony" on an ego-trip</t>
+  </si>
+  <si>
+    <t>I have stayed at this location when in town for business for over a year and a half and never had a problem until the new manager (2mths) Tony checked me in.  He asked for both myself and my husband's id and when I asked him why he said "it's our policy, I'm the manager and I can refuse to let you stay here!!!!!" I merely was trying to tell him that of ALL the Motel 6 locations across the US (including this one) no one EVER asked for both. We were happy to show them we just didn't appreciate the attitude we got when we questioned his authority. I did call and report his behavior and went on my way only to find out the next time I tried to stay that he had banned me! I asked to speak with him to get the reason and he kept me waiting 20mins and then I found out he had snuck out the back door to avoid me. DO NOT stay here because you're treated like a criminal and many of the other "guests" who stay here are hookers and drug dealers, whom Tony doesn't seem to have a problem with.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this location when in town for business for over a year and a half and never had a problem until the new manager (2mths) Tony checked me in.  He asked for both myself and my husband's id and when I asked him why he said "it's our policy, I'm the manager and I can refuse to let you stay here!!!!!" I merely was trying to tell him that of ALL the Motel 6 locations across the US (including this one) no one EVER asked for both. We were happy to show them we just didn't appreciate the attitude we got when we questioned his authority. I did call and report his behavior and went on my way only to find out the next time I tried to stay that he had banned me! I asked to speak with him to get the reason and he kept me waiting 20mins and then I found out he had snuck out the back door to avoid me. DO NOT stay here because you're treated like a criminal and many of the other "guests" who stay here are hookers and drug dealers, whom Tony doesn't seem to have a problem with.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r155562519-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>155562519</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>scary yet a dump</t>
+  </si>
+  <si>
+    <t>Stayed here past 3 nights. Key cards would not work. Had to reprogram every night. Night staff  lady reprogramming aforementioned key cards not very nice. Cops raided rooms around the corner our last night there hauling off the a few of the locals. Room was clean but smelled like the sewer. Cigarette butts throughout the parking lot. Hotel located right on katella so it was pretty noisy all night. Other than that had a nice stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Stanton, responded to this reviewResponded April 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here past 3 nights. Key cards would not work. Had to reprogram every night. Night staff  lady reprogramming aforementioned key cards not very nice. Cops raided rooms around the corner our last night there hauling off the a few of the locals. Room was clean but smelled like the sewer. Cigarette butts throughout the parking lot. Hotel located right on katella so it was pretty noisy all night. Other than that had a nice stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r154521114-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>154521114</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Place is alright if you have a dog with not so many place in the area that accept dog during our stay. Room is clean with smell of cigarette although we choose the non smoking room. I believed there is no more non smoking room in Motel 6 anywhere, they all smell cigarette. Place is not like those new renovated Motel 6. If I don't have a dog I won't stay on this place. That is the fact.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r139426083-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>139426083</t>
+  </si>
+  <si>
+    <t>09/04/2012</t>
+  </si>
+  <si>
+    <t>We stayed over the 4th of July this year to enjoy Disneyland.  We were looking for something on a budget and trusted the Motel 6 name.  This place was horrible.  Yes, it was inexpensive compared to other hotels closer to Disneyland, but from the minute I parked, I knew I'd made the wrong decision.  There were what appeared to be homeless people milling around the property.  I could smell pot as I walked to our room and I was afraid for my kids staying the night there.  I figured I'd tough it out since we had no other choice and we'd only be there a few hours to sleep between trips to Disney parks.  It was supposed to have been newly renovated.  I saw no evidence of that.  The carpet was filthy.  The room was stuffy, all the moisture from everything was held in the room.  There was no fan in the bathroom so everything stayed in the room.  It was so moist in the room that our towels from swimming wouldn't even dry over night.  When I pulled back the covers of the bed, the sheet had what had to be mold or mildew on them.  It was so late I hopped into bed with the kids because I didn't want to mess with it.  No one came to make up the room the next day.  We came back from the park at about 4PM to change clothes and...We stayed over the 4th of July this year to enjoy Disneyland.  We were looking for something on a budget and trusted the Motel 6 name.  This place was horrible.  Yes, it was inexpensive compared to other hotels closer to Disneyland, but from the minute I parked, I knew I'd made the wrong decision.  There were what appeared to be homeless people milling around the property.  I could smell pot as I walked to our room and I was afraid for my kids staying the night there.  I figured I'd tough it out since we had no other choice and we'd only be there a few hours to sleep between trips to Disney parks.  It was supposed to have been newly renovated.  I saw no evidence of that.  The carpet was filthy.  The room was stuffy, all the moisture from everything was held in the room.  There was no fan in the bathroom so everything stayed in the room.  It was so moist in the room that our towels from swimming wouldn't even dry over night.  When I pulled back the covers of the bed, the sheet had what had to be mold or mildew on them.  It was so late I hopped into bed with the kids because I didn't want to mess with it.  No one came to make up the room the next day.  We came back from the park at about 4PM to change clothes and none of the towels had been removed, the beds weren't made, nothing.  I took my spare blanket out of the car and slept on that.  It was so horribly humid and uncomfortable in the room, the A/C did nothing to make it better.  It was just cool and wet instead of warm and wet.  I no longer trust the Motel 6 name and realize I have to read the reviews before I chose a place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>We stayed over the 4th of July this year to enjoy Disneyland.  We were looking for something on a budget and trusted the Motel 6 name.  This place was horrible.  Yes, it was inexpensive compared to other hotels closer to Disneyland, but from the minute I parked, I knew I'd made the wrong decision.  There were what appeared to be homeless people milling around the property.  I could smell pot as I walked to our room and I was afraid for my kids staying the night there.  I figured I'd tough it out since we had no other choice and we'd only be there a few hours to sleep between trips to Disney parks.  It was supposed to have been newly renovated.  I saw no evidence of that.  The carpet was filthy.  The room was stuffy, all the moisture from everything was held in the room.  There was no fan in the bathroom so everything stayed in the room.  It was so moist in the room that our towels from swimming wouldn't even dry over night.  When I pulled back the covers of the bed, the sheet had what had to be mold or mildew on them.  It was so late I hopped into bed with the kids because I didn't want to mess with it.  No one came to make up the room the next day.  We came back from the park at about 4PM to change clothes and...We stayed over the 4th of July this year to enjoy Disneyland.  We were looking for something on a budget and trusted the Motel 6 name.  This place was horrible.  Yes, it was inexpensive compared to other hotels closer to Disneyland, but from the minute I parked, I knew I'd made the wrong decision.  There were what appeared to be homeless people milling around the property.  I could smell pot as I walked to our room and I was afraid for my kids staying the night there.  I figured I'd tough it out since we had no other choice and we'd only be there a few hours to sleep between trips to Disney parks.  It was supposed to have been newly renovated.  I saw no evidence of that.  The carpet was filthy.  The room was stuffy, all the moisture from everything was held in the room.  There was no fan in the bathroom so everything stayed in the room.  It was so moist in the room that our towels from swimming wouldn't even dry over night.  When I pulled back the covers of the bed, the sheet had what had to be mold or mildew on them.  It was so late I hopped into bed with the kids because I didn't want to mess with it.  No one came to make up the room the next day.  We came back from the park at about 4PM to change clothes and none of the towels had been removed, the beds weren't made, nothing.  I took my spare blanket out of the car and slept on that.  It was so horribly humid and uncomfortable in the room, the A/C did nothing to make it better.  It was just cool and wet instead of warm and wet.  I no longer trust the Motel 6 name and realize I have to read the reviews before I chose a place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r113133991-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>113133991</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>Nice Surprise!</t>
+  </si>
+  <si>
+    <t>I was concerned about this place beacsue of some of the reviews.  However, we were pleasantly surprised.  Our room was nice, clean and very updated/looked new.  We will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r103346877-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>103346877</t>
+  </si>
+  <si>
+    <t>04/08/2011</t>
+  </si>
+  <si>
+    <t>Cheapest of the OC Motel 6s</t>
+  </si>
+  <si>
+    <t>3-story building with elevator, which might be distant from your room.  Parking might be distant from the elevator or from your room, if you are lucky enough to get a ground floor room.  $40 weekdays and $45 weekends plus $6 for each additional adult.  Usually I can get a 2.5* or 3* hotel in Buena Park or Garden Grove for about the same price on Priceline, this property is my emergency backup.  Internet access card $3, but unless you get a ground floor room it won't work.  Pool.  Jack-in-the-Box next door, 24H.  Most other Motels 6 in the OC are incrementally nicer but are $5-10 more expensive.  At this writing gas is $4.50, so you might want to pay a few dollars more if your destination is a few miles distant.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>3-story building with elevator, which might be distant from your room.  Parking might be distant from the elevator or from your room, if you are lucky enough to get a ground floor room.  $40 weekdays and $45 weekends plus $6 for each additional adult.  Usually I can get a 2.5* or 3* hotel in Buena Park or Garden Grove for about the same price on Priceline, this property is my emergency backup.  Internet access card $3, but unless you get a ground floor room it won't work.  Pool.  Jack-in-the-Box next door, 24H.  Most other Motels 6 in the OC are incrementally nicer but are $5-10 more expensive.  At this writing gas is $4.50, so you might want to pay a few dollars more if your destination is a few miles distant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r62287214-Motel_6_Stanton-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>62287214</t>
+  </si>
+  <si>
+    <t>04/24/2010</t>
+  </si>
+  <si>
+    <t>Broke out in hives for 2 nights, Beds not clean..omg dont want to thank about it!</t>
+  </si>
+  <si>
+    <t>March 2010</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1219,1701 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>96</v>
+      </c>
+      <c r="X9" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>89</v>
+      </c>
+      <c r="O10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>105</v>
+      </c>
+      <c r="X10" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>119</v>
+      </c>
+      <c r="X12" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K13" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>127</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>1</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>128</v>
+      </c>
+      <c r="X13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>131</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" t="s">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+      <c r="L14" t="s">
+        <v>135</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>136</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>137</v>
+      </c>
+      <c r="X14" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>146</v>
+      </c>
+      <c r="J16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>149</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>152</v>
+      </c>
+      <c r="X16" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" t="s">
+        <v>180</v>
+      </c>
+      <c r="K21" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" t="s">
+        <v>182</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>183</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>184</v>
+      </c>
+      <c r="X21" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>188</v>
+      </c>
+      <c r="J22" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" t="s">
+        <v>191</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>160</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>194</v>
+      </c>
+      <c r="J23" t="s">
+        <v>195</v>
+      </c>
+      <c r="K23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L23" t="s">
+        <v>197</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>198</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>199</v>
+      </c>
+      <c r="X23" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>198</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" t="s">
+        <v>208</v>
+      </c>
+      <c r="K25" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" t="s">
+        <v>209</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>210</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>212</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" t="s">
+        <v>214</v>
+      </c>
+      <c r="K26" t="s">
+        <v>215</v>
+      </c>
+      <c r="L26" t="s">
+        <v>216</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" t="s">
+        <v>219</v>
+      </c>
+      <c r="K27" t="s">
+        <v>220</v>
+      </c>
+      <c r="L27" t="s">
+        <v>221</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>222</v>
+      </c>
+      <c r="O27" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6343</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>225</v>
+      </c>
+      <c r="J28" t="s">
+        <v>226</v>
+      </c>
+      <c r="K28" t="s">
+        <v>134</v>
+      </c>
+      <c r="L28" t="s">
+        <v>227</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>228</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>227</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_561.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_561.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Armando L</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>sparky144</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r503868426-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>I never write reviews but had to on this one.For your own physical and health safety stay away !I'm pretty easy going guy but my room was the most filthy rat hole I've ever stayed in.Even though room was cleaned before entry, it was gross.Both beds had stains all over them(you can imagine from what) and cigarette burn holes(non smoking room). I didn't even want to lay on top of bed let alone get in covers.Sink had human hair in it and bedroom counter and chair human or food particles.Shower gang graffiti. Police units outsideSketchy people hanging out all over facilityI could go on and on but you get the pictureIts like a slum hangout where police are regularly called for disturbances.The only bright spot was checking in staff was excellentMore</t>
   </si>
   <si>
+    <t>Jim K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r428826760-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>DONDiSANTOS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r417472149-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Joe L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r417376966-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>latindrummer2112</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r415497593-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -270,6 +288,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>SunnyJoy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r358596097-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t>Let me first say....I really really like Motel 6!  Motel 6 is consistently consistent!  This Motel 6, like every Motel 6 I've stayed in was clean and fresh!  I really like the orange wall and orange accents and cool "pod" type shower!  I like the fact that you can tell by looking at the floor that it is clean.  This Motel 6 was a little different than the others because they have an intercom system that they use frequently to broadcast throughout the property warning loiterers to leave and reminding them that they are under surveillance, so they needed to gather their belongings and leave or the police will be called...I also observed the police driving through the property 3 times...this didn't bother me because I actually felt safer with the police and the cameras...however, with the police presence, the surveillance cameras and the orange walls, I did feel a little like an inmate!  LOL!  I am from Northern California, but spend a great deal of time in Orange County, I am a single mom traveling with my 16 year old daughter and we both felt safe !  On a side note, all the staff was super nice and helpful and the property was spotless with maintenance people constantly cleaning up, sweeping etc etc etc....I always know what to expect with Motel 6 and I like it that way!More</t>
   </si>
   <si>
+    <t>Eileen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r357965993-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -313,6 +337,9 @@
   </si>
   <si>
     <t>There is no problem with the staff, everyone I had talked to or ask a question were  courteous and nice. The problem is the room and neighborhood.  I had a smoking room but don't expect to have  numerous burns in the bedspread   The  furniture also needs to be replaced it's in terrible condition and people have drawn all over and side is peeling. I have to say I slept with one eye open. I don't care how a person looks, hell my hair is past my backside but I didn't feel the safest and wished I had protection. If you have a family stay away, if you are just 2 adults. You may want to think twice. The wifi was free because I am a member of AARP if not a member $2.99 to $4.99 for wifiMore</t>
+  </si>
+  <si>
+    <t>Chelsea E</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r357346347-Motel_6_Stanton-Stanton_California.html</t>
@@ -358,6 +385,9 @@
 We originally were scheduled to stay 3 nights but decided we could take it and left a day early. Please for your own sanity and...My husband and I stayed here for 3 days in middle March and were very disappointed. Usually we are very easy going when it comes to hotels because all we are there to do is sleep but this hotel was horrible. Below are the cons that made us choose to never return. . .1. When we arrived the two front desk ladies were very young and seemed as if they had no idea what was going on. They were rude and were not personable at all. 2.  We stayed in a smoke free room however the top blanket was burned through with multiple cigarette burns, had multiple stains and snags galore. Needless to say we did not use it. 3. Both days that room service came they only left one washcloth for two people, which makes no sense to us. 4. They do not give any shampoos, conditioners, or lotions only tiny bar soaps. 5. No coffee makers, refrigerators, microwaves, blow dryers, dressers, or alarm clocks in the rooms. 6. The ice bucket they gave us was caked with some greasy substance and remained that way the whole trip obviously showing there housekeeping staff isn't very attentive to detail.7.  The location makes it extremely loud. Even if you are in the back buildings. We originally were scheduled to stay 3 nights but decided we could take it and left a day early. Please for your own sanity and health spend 10 dollars more a night and choose another hotel!More</t>
   </si>
   <si>
+    <t>tylerjoe1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r310606527-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -376,6 +406,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Shelli H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r299516952-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -400,6 +433,9 @@
     <t>We had a 4 night stay here and will never stay here again. Even thought the room was newly remodeled it was gross. They didn't even get new bedding to go with all they put into the new décor. Nice new laminent flooring was dirty. Hair everywhere, and it wasn't ours, it was there when we checked in. Even though we had a no smoking room the bedding on both beds had several cigarette burns. Our toilet would not flush, it just swirled around. The cleaning staff came everyday around 6-7pm, kind of inconvenient. The towels besides being tiny and scratchy they were stained and had hair on them, every towel we had had hair on it.More</t>
   </si>
   <si>
+    <t>Morgan D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r286187447-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -427,6 +463,9 @@
     <t>We checked in to this hotel for 6 nights, but ended up shortening our stay to 1 night because of how put off we were by the room. The check-in process was fine, but as soon as we got to the room, we knew we couldn't stay there. It was horribly lit, it smelled like someone had just smoked in it even though it was designated non-smoking, there were burn marks on the bedcovers, and it was incredibly muggy and humid even though the air conditioner was running at full blast. There were homeless people and drug addicts all over outside the building, and someone started yelling outside our door at 6:00 AM. This, and the uncomfortable bed and noisy AC resulted in a terrible night's sleep. I usually arrive at budget motels with very low expectations, and the only thing that barely met those expectations was the new-ish bathroom. The layout of the shower, however, is incredibly awkward and the shower itself is tiny. Not ideal for my 6'4 husband. Due to these issues, we checked out early and moved to a new hotel for the remainder of our vacation.More</t>
   </si>
   <si>
+    <t>Cellina R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r264999378-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -454,6 +493,9 @@
     <t>Requested a non smoking room the room smelled like someone just smoked in the room. When I called the front desk the receptionist stated your entire area us no smoking but I ts just bc people smoke outside More</t>
   </si>
   <si>
+    <t>SheenaEVasquez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r251682942-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -469,6 +511,9 @@
     <t>Very friendly and quite. I think it's the best motel in Orange County. Great prices, friendly staff, clean rooms, and pet friendly. They even call your room after you check in to make sure everything is to your liking. And the lowest price out of the motel 6 chain and on top of that they have even lower weekly rates.</t>
   </si>
   <si>
+    <t>Sueiszen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r251019704-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -499,6 +544,9 @@
     <t>Stayed for 3 nights to attend a convention in Anaheim so for our budget the rates were good, the service was good, no carpet on the floor and there appears to have been some upgrades. BUT the musty smell in the room hit us as soon as we opened the door and the beds did not appear clean. The bedspreads were stained and when we pulled them back the blankets had cigarette holes and stains as well. We won't be staying there again.  More</t>
   </si>
   <si>
+    <t>kochamkinie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r216796826-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -517,6 +565,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Sunshineflyer124</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r215729986-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -532,6 +583,9 @@
     <t>Clean basic room, price is OK. Just make sure you don't get frontside room to the mainstreet. Much noise..................................................................................................................</t>
   </si>
   <si>
+    <t xml:space="preserve">AngelxofxNod </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r206055897-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -550,6 +604,9 @@
     <t>I am writing this review as I sit in the room after having just taken a shower. I do not feel clean. Upon checking in we thought the place would be fine. The staff were super friendly and they were happy to give us a "no smoking" room adjoining the other family we were traveling with. But walking into the room was a completely different story. We requested two doubles but upon opening the door u feel like u are in Toon Town and looking in on a miniature house. The beds are tiny. They are probably 6 inches wider than a twin bed, but I could be being generous. The bed spreads were obviously stained and u could tell that they hadn't been freshly laundered at all because the stains looked fresh. One of the pillow cases had something I feared to be living growing on it and when I pulled back the blankets to check out the sheets I counted out five hairs before I stopped counting. It was obvious that the cleaning staff did not change the sheets, but just remade the bed instead. I called the front desk and they sent someone right up to change the bedding and were super nice about it, but I don't think it's a request that I should of had to make in the first place. When the lady took the sheets off there were urine stains on one bed...I am writing this review as I sit in the room after having just taken a shower. I do not feel clean. Upon checking in we thought the place would be fine. The staff were super friendly and they were happy to give us a "no smoking" room adjoining the other family we were traveling with. But walking into the room was a completely different story. We requested two doubles but upon opening the door u feel like u are in Toon Town and looking in on a miniature house. The beds are tiny. They are probably 6 inches wider than a twin bed, but I could be being generous. The bed spreads were obviously stained and u could tell that they hadn't been freshly laundered at all because the stains looked fresh. One of the pillow cases had something I feared to be living growing on it and when I pulled back the blankets to check out the sheets I counted out five hairs before I stopped counting. It was obvious that the cleaning staff did not change the sheets, but just remade the bed instead. I called the front desk and they sent someone right up to change the bedding and were super nice about it, but I don't think it's a request that I should of had to make in the first place. When the lady took the sheets off there were urine stains on one bed and some mysterious blue stain where a urine stain should have been and one of the decased pillows had a blood stain on it. The new sheets were clean but the bedspread was still stained but at least u could tell it had been washed. The shower was super icky. This place has new paint but it's still dirty and gross and our room smelled like cigarette smoke super bad even though it was supposed to be smoke free. Do not stay here. It's not worth it. The beds are laughably small and horribly uncomfortable and the ice maker makes the sounds of fighting dragons. All night. More</t>
   </si>
   <si>
+    <t>Simon E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r179996713-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -568,6 +625,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>michele r</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r179375516-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -595,6 +655,9 @@
     <t>I too want to thank the visitor of the above review and others who complained about the Motel 6 in Stanton, Ca. I live less than 1.5 miles from said location. I know this area well. And sorry to say this is a poor area loaded with hookers and druggies. Stanton is known for this low income type. I stayed at this motels years ago when it wasn't quite so bad. Fast forward to about 5 months ago and, whoa! Boy what a change! Yes it looks ok on the outside, sort of, but I would not stay here, if only for safety reasons alone! And yes you can get a nicer place for the money they charge you! Better yet, don't even stay in California, DIZZYland is not worth the price of admission!.More</t>
   </si>
   <si>
+    <t>S D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r177302145-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -613,6 +676,9 @@
     <t>I have stayed at this location when in town for business for over a year and a half and never had a problem until the new manager (2mths) Tony checked me in.  He asked for both myself and my husband's id and when I asked him why he said "it's our policy, I'm the manager and I can refuse to let you stay here!!!!!" I merely was trying to tell him that of ALL the Motel 6 locations across the US (including this one) no one EVER asked for both. We were happy to show them we just didn't appreciate the attitude we got when we questioned his authority. I did call and report his behavior and went on my way only to find out the next time I tried to stay that he had banned me! I asked to speak with him to get the reason and he kept me waiting 20mins and then I found out he had snuck out the back door to avoid me. DO NOT stay here because you're treated like a criminal and many of the other "guests" who stay here are hookers and drug dealers, whom Tony doesn't seem to have a problem with.More</t>
   </si>
   <si>
+    <t>jahute</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r155562519-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -640,6 +706,9 @@
     <t>Stayed here past 3 nights. Key cards would not work. Had to reprogram every night. Night staff  lady reprogramming aforementioned key cards not very nice. Cops raided rooms around the corner our last night there hauling off the a few of the locals. Room was clean but smelled like the sewer. Cigarette butts throughout the parking lot. Hotel located right on katella so it was pretty noisy all night. Other than that had a nice stay.More</t>
   </si>
   <si>
+    <t>jcdalman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r154521114-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -652,6 +721,9 @@
     <t>Place is alright if you have a dog with not so many place in the area that accept dog during our stay. Room is clean with smell of cigarette although we choose the non smoking room. I believed there is no more non smoking room in Motel 6 anywhere, they all smell cigarette. Place is not like those new renovated Motel 6. If I don't have a dog I won't stay on this place. That is the fact.</t>
   </si>
   <si>
+    <t>WingNut69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r139426083-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -670,6 +742,9 @@
     <t>We stayed over the 4th of July this year to enjoy Disneyland.  We were looking for something on a budget and trusted the Motel 6 name.  This place was horrible.  Yes, it was inexpensive compared to other hotels closer to Disneyland, but from the minute I parked, I knew I'd made the wrong decision.  There were what appeared to be homeless people milling around the property.  I could smell pot as I walked to our room and I was afraid for my kids staying the night there.  I figured I'd tough it out since we had no other choice and we'd only be there a few hours to sleep between trips to Disney parks.  It was supposed to have been newly renovated.  I saw no evidence of that.  The carpet was filthy.  The room was stuffy, all the moisture from everything was held in the room.  There was no fan in the bathroom so everything stayed in the room.  It was so moist in the room that our towels from swimming wouldn't even dry over night.  When I pulled back the covers of the bed, the sheet had what had to be mold or mildew on them.  It was so late I hopped into bed with the kids because I didn't want to mess with it.  No one came to make up the room the next day.  We came back from the park at about 4PM to change clothes and...We stayed over the 4th of July this year to enjoy Disneyland.  We were looking for something on a budget and trusted the Motel 6 name.  This place was horrible.  Yes, it was inexpensive compared to other hotels closer to Disneyland, but from the minute I parked, I knew I'd made the wrong decision.  There were what appeared to be homeless people milling around the property.  I could smell pot as I walked to our room and I was afraid for my kids staying the night there.  I figured I'd tough it out since we had no other choice and we'd only be there a few hours to sleep between trips to Disney parks.  It was supposed to have been newly renovated.  I saw no evidence of that.  The carpet was filthy.  The room was stuffy, all the moisture from everything was held in the room.  There was no fan in the bathroom so everything stayed in the room.  It was so moist in the room that our towels from swimming wouldn't even dry over night.  When I pulled back the covers of the bed, the sheet had what had to be mold or mildew on them.  It was so late I hopped into bed with the kids because I didn't want to mess with it.  No one came to make up the room the next day.  We came back from the park at about 4PM to change clothes and none of the towels had been removed, the beds weren't made, nothing.  I took my spare blanket out of the car and slept on that.  It was so horribly humid and uncomfortable in the room, the A/C did nothing to make it better.  It was just cool and wet instead of warm and wet.  I no longer trust the Motel 6 name and realize I have to read the reviews before I chose a place to stay.More</t>
   </si>
   <si>
+    <t>azmom003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r113133991-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -685,6 +760,9 @@
     <t>I was concerned about this place beacsue of some of the reviews.  However, we were pleasantly surprised.  Our room was nice, clean and very updated/looked new.  We will definitely stay here again.</t>
   </si>
   <si>
+    <t>mbstone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r103346877-Motel_6_Stanton-Stanton_California.html</t>
   </si>
   <si>
@@ -704,6 +782,9 @@
   </si>
   <si>
     <t>3-story building with elevator, which might be distant from your room.  Parking might be distant from the elevator or from your room, if you are lucky enough to get a ground floor room.  $40 weekdays and $45 weekends plus $6 for each additional adult.  Usually I can get a 2.5* or 3* hotel in Buena Park or Garden Grove for about the same price on Priceline, this property is my emergency backup.  Internet access card $3, but unless you get a ground floor room it won't work.  Pool.  Jack-in-the-Box next door, 24H.  Most other Motels 6 in the OC are incrementally nicer but are $5-10 more expensive.  At this writing gas is $4.50, so you might want to pay a few dollars more if your destination is a few miles distant.More</t>
+  </si>
+  <si>
+    <t>LGriss</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82233-r62287214-Motel_6_Stanton-Stanton_California.html</t>
@@ -1223,43 +1304,47 @@
       <c r="A2" t="n">
         <v>6343</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
         <v>39</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1273,50 +1358,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6343</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -1336,50 +1425,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6343</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1393,50 +1486,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>6343</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1450,50 +1547,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6343</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
         <v>73</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J6" t="s">
-        <v>69</v>
-      </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1507,50 +1608,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6343</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1570,50 +1675,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6343</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1633,50 +1742,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>6343</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -1692,56 +1805,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="X9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>6343</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1753,56 +1870,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="X10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>6343</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1816,50 +1937,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>6343</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>124</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -1877,56 +2002,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="X12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="Y12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>6343</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
@@ -1944,56 +2073,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="X13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>6343</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="J14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2005,47 +2138,51 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="X14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>6343</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
@@ -2074,50 +2211,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>6343</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="K16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="O16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2129,56 +2270,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="X16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>6343</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2198,41 +2343,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>6343</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>177</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="J18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
@@ -2251,41 +2400,45 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>6343</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>183</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="J19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -2314,50 +2467,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>6343</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>190</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2381,50 +2538,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>6343</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>197</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -2446,56 +2607,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="X21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="Y21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>6343</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>207</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="J22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -2519,50 +2684,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>6343</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>214</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="J23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="K23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -2584,56 +2753,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="X23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="Y23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>6343</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>224</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s">
         <v>10</v>
       </c>
       <c r="L24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -2657,50 +2830,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>6343</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>229</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="J25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="K25" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L25" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -2724,41 +2901,45 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>6343</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>236</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="J26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="K26" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
@@ -2787,50 +2968,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>6343</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>242</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="J27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="K27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="O27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -2854,50 +3039,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>6343</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>250</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="J28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="K28" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="L28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -2911,7 +3100,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
